--- a/resources/result.xlsx
+++ b/resources/result.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -35,193 +35,103 @@
     <t>Wendsday</t>
   </si>
   <si>
-    <t>160 qr Osule_Tarahi_Narm_Afzar</t>
-  </si>
-  <si>
-    <t>160 ra mabani_computer</t>
-  </si>
-  <si>
-    <t>160 qy Compiler</t>
-  </si>
-  <si>
-    <t>130 mo Kargahe_Computer</t>
-  </si>
-  <si>
-    <t>130 mo DataBase</t>
-  </si>
-  <si>
-    <t>100 qt Mabani_Nazariye_Mohasebe</t>
-  </si>
-  <si>
-    <t>100 ba Pishrafte</t>
-  </si>
-  <si>
-    <t>100 qo Tarkibiyat</t>
-  </si>
-  <si>
-    <t>165 ba Pishrafte</t>
-  </si>
-  <si>
-    <t>165 qu Analise_Riyazi</t>
-  </si>
-  <si>
-    <t>165 qa Riyzi1</t>
-  </si>
-  <si>
-    <t>135 qu Analise_Riyazi</t>
-  </si>
-  <si>
-    <t>135 ra mabani_computer</t>
-  </si>
-  <si>
-    <t>105 qo Tarkibiyat</t>
-  </si>
-  <si>
-    <t>140 qa Riyzi1</t>
+    <t>115 Teacher7 moadelat</t>
+  </si>
+  <si>
+    <t>115 Teacher4 Kargahe_Computer</t>
+  </si>
+  <si>
+    <t>115 Teacher1 Riyzi1</t>
+  </si>
+  <si>
+    <t>120 Teacher1 Mabani_Riazi</t>
+  </si>
+  <si>
+    <t>120 Teacher7 moadelat</t>
+  </si>
+  <si>
+    <t>120 Teacher8 Pishrafte</t>
+  </si>
+  <si>
+    <t>120 Teacher7 Riyazi2</t>
+  </si>
+  <si>
+    <t>105 Teacher5 Madar_Manteghi</t>
+  </si>
+  <si>
+    <t>105 Teacher6 Data_Structure</t>
+  </si>
+  <si>
+    <t>105 Teacher3 Riyazi3</t>
+  </si>
+  <si>
+    <t>100 Teacher2 Phisics</t>
+  </si>
+  <si>
+    <t>100 Teacher1 Mabani_Riazi</t>
+  </si>
+  <si>
+    <t>100 Teacher8 Tarkibiyat</t>
+  </si>
+  <si>
+    <t>110 Teacher8 Pishrafte</t>
   </si>
   <si>
     <t>Satureday</t>
   </si>
   <si>
-    <t>160 qr Algorithm</t>
-  </si>
-  <si>
-    <t>160 qy Mabani_Riazi</t>
-  </si>
-  <si>
-    <t>160 mo Riyazi2</t>
-  </si>
-  <si>
-    <t>130 qt Azmayieshgah_riyazi</t>
-  </si>
-  <si>
-    <t>130 qr Algorithm</t>
-  </si>
-  <si>
-    <t>130 ba Aze Paygah</t>
-  </si>
-  <si>
-    <t>100 qt Azmayieshgah_riyazi</t>
-  </si>
-  <si>
-    <t>100 qt PL</t>
-  </si>
-  <si>
-    <t>165 qa Phisics</t>
-  </si>
-  <si>
-    <t>165 mo Riyazi2</t>
-  </si>
-  <si>
-    <t>135 qa Phisics</t>
-  </si>
-  <si>
-    <t>105 qo Mantegh</t>
+    <t>115 Teacher6 Data_Structure</t>
+  </si>
+  <si>
+    <t>115 Teacher4 mabani_computer</t>
+  </si>
+  <si>
+    <t>115 Teacher7 Algorithm</t>
+  </si>
+  <si>
+    <t>120 Teacher5 Madar_Manteghi</t>
+  </si>
+  <si>
+    <t>120 Teacher3 Riyazi3</t>
+  </si>
+  <si>
+    <t>120 Teacher7 Algorithm</t>
+  </si>
+  <si>
+    <t>105 Teacher7 Riyazi2</t>
+  </si>
+  <si>
+    <t>105 Teacher8 Numerical Analyises</t>
   </si>
   <si>
     <t>Tuesday</t>
   </si>
   <si>
-    <t>160 qo Mantegh</t>
-  </si>
-  <si>
-    <t>160 ba Aze Paygah</t>
-  </si>
-  <si>
-    <t>160 qa Riyazi3</t>
-  </si>
-  <si>
-    <t>130 qt PL</t>
-  </si>
-  <si>
-    <t>130 qo Mabani_Matrix</t>
-  </si>
-  <si>
-    <t>130 ba Numerical Analyises</t>
-  </si>
-  <si>
-    <t>100 mo moadelat</t>
-  </si>
-  <si>
-    <t>100 qt Nazariye_Mohasebe</t>
-  </si>
-  <si>
-    <t>165 qa Riyazi3</t>
-  </si>
-  <si>
-    <t>165 qo Exper_System</t>
-  </si>
-  <si>
-    <t>135 qo Mabani_Matrix</t>
+    <t>115 Teacher4 Mabani_Matrix</t>
+  </si>
+  <si>
+    <t>115 Teacher4 Mabani_Nazariye_Mohasebe</t>
+  </si>
+  <si>
+    <t>120 Teacher6 Compiler</t>
+  </si>
+  <si>
+    <t>120 Teacher8 Numerical Analyises</t>
+  </si>
+  <si>
+    <t>120 Teacher8 Azmayieshgah_riyazi</t>
+  </si>
+  <si>
+    <t>105 Teacher6 Compiler</t>
   </si>
   <si>
     <t>Sunday</t>
   </si>
   <si>
-    <t>160 qy AI</t>
-  </si>
-  <si>
-    <t>160 qr Madar_Manteghi</t>
-  </si>
-  <si>
-    <t>160 qt Neural_Network</t>
-  </si>
-  <si>
-    <t>130 mo image_processing</t>
-  </si>
-  <si>
-    <t>130 qy AI</t>
-  </si>
-  <si>
-    <t>130 ba OS</t>
-  </si>
-  <si>
-    <t>100 ba Ehtemal1</t>
-  </si>
-  <si>
-    <t>100 qt Neural_Network</t>
-  </si>
-  <si>
-    <t>100 qa Network</t>
-  </si>
-  <si>
-    <t>165 mo moadelat</t>
-  </si>
-  <si>
-    <t>165 qa Zaban_Takhasosi</t>
-  </si>
-  <si>
-    <t>165 ba Ehtemal1</t>
-  </si>
-  <si>
-    <t>135 qa Zaban_Takhasosi</t>
-  </si>
-  <si>
-    <t>135 qa Network</t>
-  </si>
-  <si>
-    <t>105 qo Exper_System</t>
-  </si>
-  <si>
     <t>Monday</t>
   </si>
   <si>
-    <t>160 qr Jabre_Khati</t>
-  </si>
-  <si>
-    <t>160 qy Memari_Computer</t>
-  </si>
-  <si>
-    <t>130 qy Data_Structure</t>
-  </si>
-  <si>
-    <t>130 qt BehineSazi_Khati</t>
-  </si>
-  <si>
-    <t>100 qt BehineSazi_Khati</t>
-  </si>
-  <si>
-    <t>165 ba OS</t>
+    <t>115 Teacher8 Azmayieshgah_riyazi</t>
   </si>
 </sst>
 </file>
@@ -571,11 +481,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="30"/>
-    <col customWidth="1" max="2" min="2" width="30"/>
-    <col customWidth="1" max="3" min="3" width="30"/>
-    <col customWidth="1" max="4" min="4" width="30"/>
-    <col customWidth="1" max="5" min="5" width="30"/>
+    <col customWidth="1" max="1" min="1" width="35"/>
+    <col customWidth="1" max="2" min="2" width="35"/>
+    <col customWidth="1" max="3" min="3" width="35"/>
+    <col customWidth="1" max="4" min="4" width="35"/>
+    <col customWidth="1" max="5" min="5" width="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -607,13 +517,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="F2" s="2" t="n"/>
       <c r="G2" s="2" t="n"/>
@@ -626,11 +536,13 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="n"/>
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
@@ -640,15 +552,15 @@
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="n"/>
       <c r="F4" s="2" t="n"/>
       <c r="G4" s="2" t="n"/>
       <c r="H4" s="2" t="n"/>
@@ -657,15 +569,15 @@
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="E5" s="2" t="n"/>
       <c r="F5" s="2" t="n"/>
       <c r="G5" s="2" t="n"/>
       <c r="H5" s="2" t="n"/>
@@ -674,10 +586,10 @@
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="n"/>
       <c r="E6" s="2" t="n"/>
@@ -690,7 +602,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="2" t="n"/>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="n"/>
       <c r="E7" s="2" t="n"/>
@@ -700,34 +612,38 @@
       <c r="I7" s="2" t="n"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="2" t="n"/>
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F8" s="2" t="n"/>
       <c r="G8" s="2" t="n"/>
       <c r="H8" s="2" t="n"/>
       <c r="I8" s="2" t="n"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A9" s="1" t="n"/>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
       <c r="G9" s="2" t="n"/>
       <c r="H9" s="2" t="n"/>
@@ -736,17 +652,13 @@
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
       <c r="G10" s="2" t="n"/>
       <c r="H10" s="2" t="n"/>
@@ -754,16 +666,10 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="n"/>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B11" s="2" t="n"/>
       <c r="C11" s="2" t="n"/>
-      <c r="D11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
       <c r="G11" s="2" t="n"/>
       <c r="H11" s="2" t="n"/>
@@ -771,13 +677,9 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="n"/>
-      <c r="B12" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B12" s="2" t="n"/>
       <c r="C12" s="2" t="n"/>
-      <c r="D12" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="D12" s="2" t="n"/>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
       <c r="G12" s="2" t="n"/>
@@ -788,9 +690,7 @@
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="2" t="n"/>
       <c r="C13" s="2" t="n"/>
-      <c r="D13" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="D13" s="2" t="n"/>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
       <c r="G13" s="2" t="n"/>
@@ -798,13 +698,21 @@
       <c r="I13" s="2" t="n"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="2" t="n"/>
-      <c r="C14" s="2" t="n"/>
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="2" t="n"/>
+        <v>30</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="F14" s="2" t="n"/>
       <c r="G14" s="2" t="n"/>
       <c r="H14" s="2" t="n"/>
@@ -812,9 +720,15 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="n"/>
-      <c r="B15" s="2" t="n"/>
-      <c r="C15" s="2" t="n"/>
-      <c r="D15" s="2" t="n"/>
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
       <c r="G15" s="2" t="n"/>
@@ -822,21 +736,13 @@
       <c r="I15" s="2" t="n"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="2" t="n"/>
+      <c r="C16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="D16" s="2" t="n"/>
+      <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
       <c r="G16" s="2" t="n"/>
       <c r="H16" s="2" t="n"/>
@@ -845,15 +751,9 @@
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="2" t="n"/>
-      <c r="C17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="C17" s="2" t="n"/>
+      <c r="D17" s="2" t="n"/>
+      <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
       <c r="G17" s="2" t="n"/>
       <c r="H17" s="2" t="n"/>
@@ -862,13 +762,9 @@
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="C18" s="2" t="n"/>
       <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
       <c r="G18" s="2" t="n"/>
       <c r="H18" s="2" t="n"/>
@@ -877,25 +773,23 @@
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="2" t="n"/>
-      <c r="C19" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="C19" s="2" t="n"/>
       <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
       <c r="G19" s="2" t="n"/>
       <c r="H19" s="2" t="n"/>
       <c r="I19" s="2" t="n"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B20" s="2" t="n"/>
-      <c r="C20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="2" t="n"/>
+      <c r="C20" s="2" t="n"/>
+      <c r="D20" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
       <c r="G20" s="2" t="n"/>
@@ -925,21 +819,11 @@
       <c r="I22" s="2" t="n"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="2" t="n"/>
+      <c r="C23" s="2" t="n"/>
+      <c r="D23" s="2" t="n"/>
+      <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
       <c r="G23" s="2" t="n"/>
       <c r="H23" s="2" t="n"/>
@@ -947,18 +831,10 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="n"/>
-      <c r="B24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="B24" s="2" t="n"/>
+      <c r="C24" s="2" t="n"/>
+      <c r="D24" s="2" t="n"/>
+      <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
       <c r="G24" s="2" t="n"/>
       <c r="H24" s="2" t="n"/>
@@ -966,34 +842,24 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="n"/>
-      <c r="B25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="B25" s="2" t="n"/>
+      <c r="C25" s="2" t="n"/>
+      <c r="D25" s="2" t="n"/>
+      <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
       <c r="G25" s="2" t="n"/>
       <c r="H25" s="2" t="n"/>
       <c r="I25" s="2" t="n"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="1" t="n"/>
+      <c r="A26" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="B26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C26" s="2" t="n"/>
+      <c r="D26" s="2" t="n"/>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
       <c r="G26" s="2" t="n"/>
@@ -1002,13 +868,9 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="n"/>
-      <c r="B27" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="B27" s="2" t="n"/>
       <c r="C27" s="2" t="n"/>
-      <c r="D27" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="D27" s="2" t="n"/>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
       <c r="G27" s="2" t="n"/>
@@ -1019,9 +881,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="2" t="n"/>
       <c r="C28" s="2" t="n"/>
-      <c r="D28" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="D28" s="2" t="n"/>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
       <c r="G28" s="2" t="n"/>
@@ -1040,21 +900,11 @@
       <c r="I29" s="2" t="n"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="2" t="n"/>
+      <c r="C30" s="2" t="n"/>
+      <c r="D30" s="2" t="n"/>
+      <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
       <c r="G30" s="2" t="n"/>
       <c r="H30" s="2" t="n"/>
@@ -1062,18 +912,10 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="n"/>
-      <c r="B31" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="B31" s="2" t="n"/>
+      <c r="C31" s="2" t="n"/>
+      <c r="D31" s="2" t="n"/>
+      <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
       <c r="G31" s="2" t="n"/>
       <c r="H31" s="2" t="n"/>
@@ -1082,9 +924,7 @@
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="2" t="n"/>
-      <c r="C32" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="C32" s="2" t="n"/>
       <c r="D32" s="2" t="n"/>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1095,9 +935,7 @@
     <row r="33" spans="1:9">
       <c r="A33" s="1" t="n"/>
       <c r="B33" s="2" t="n"/>
-      <c r="C33" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="C33" s="2" t="n"/>
       <c r="D33" s="2" t="n"/>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1173,11 +1011,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A26:A31"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/resources/result.xlsx
+++ b/resources/result.xlsx
@@ -35,103 +35,103 @@
     <t>Wendsday</t>
   </si>
   <si>
+    <t>115 Teacher7 Algorithm</t>
+  </si>
+  <si>
+    <t>115 Teacher6 Compiler</t>
+  </si>
+  <si>
+    <t>115 Teacher8 mabani_computer</t>
+  </si>
+  <si>
+    <t>115 Teacher7 Mabani_Matrix</t>
+  </si>
+  <si>
+    <t>120 Teacher5 Madar_Manteghi</t>
+  </si>
+  <si>
+    <t>120 Teacher7 Algorithm</t>
+  </si>
+  <si>
+    <t>120 Teacher3 Numerical Analyises</t>
+  </si>
+  <si>
+    <t>105 Teacher1 Riyzi1</t>
+  </si>
+  <si>
+    <t>105 Teacher8 mabani_computer</t>
+  </si>
+  <si>
+    <t>100 Teacher8 Tarkibiyat</t>
+  </si>
+  <si>
+    <t>100 Teacher1 Riyzi1</t>
+  </si>
+  <si>
+    <t>110 Teacher2 Phisics</t>
+  </si>
+  <si>
+    <t>Satureday</t>
+  </si>
+  <si>
     <t>115 Teacher7 moadelat</t>
   </si>
   <si>
-    <t>115 Teacher4 Kargahe_Computer</t>
-  </si>
-  <si>
-    <t>115 Teacher1 Riyzi1</t>
-  </si>
-  <si>
-    <t>120 Teacher1 Mabani_Riazi</t>
-  </si>
-  <si>
-    <t>120 Teacher7 moadelat</t>
-  </si>
-  <si>
     <t>120 Teacher8 Pishrafte</t>
   </si>
   <si>
+    <t>120 Teacher9 Riyazi3</t>
+  </si>
+  <si>
+    <t>105 Teacher3 Numerical Analyises</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>115 Teacher9 Riyazi3</t>
+  </si>
+  <si>
+    <t>115 Teacher8 Pishrafte</t>
+  </si>
+  <si>
+    <t>115 Teacher8 Mabani_Nazariye_Mohasebe</t>
+  </si>
+  <si>
+    <t>115 Teacher6 Data_Structure</t>
+  </si>
+  <si>
+    <t>120 Teacher6 Azmayieshgah_riyazi</t>
+  </si>
+  <si>
     <t>120 Teacher7 Riyazi2</t>
   </si>
   <si>
-    <t>105 Teacher5 Madar_Manteghi</t>
-  </si>
-  <si>
-    <t>105 Teacher6 Data_Structure</t>
-  </si>
-  <si>
-    <t>105 Teacher3 Riyazi3</t>
+    <t>120 Teacher6 Data_Structure</t>
+  </si>
+  <si>
+    <t>105 Teacher6 Azmayieshgah_riyazi</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>115 Teacher7 Riyazi2</t>
+  </si>
+  <si>
+    <t>115 Teacher7 Kargahe_Computer</t>
+  </si>
+  <si>
+    <t>115 Teacher9 Mabani_Riazi</t>
+  </si>
+  <si>
+    <t>120 Teacher9 Mabani_Riazi</t>
+  </si>
+  <si>
+    <t>Monday</t>
   </si>
   <si>
     <t>100 Teacher2 Phisics</t>
-  </si>
-  <si>
-    <t>100 Teacher1 Mabani_Riazi</t>
-  </si>
-  <si>
-    <t>100 Teacher8 Tarkibiyat</t>
-  </si>
-  <si>
-    <t>110 Teacher8 Pishrafte</t>
-  </si>
-  <si>
-    <t>Satureday</t>
-  </si>
-  <si>
-    <t>115 Teacher6 Data_Structure</t>
-  </si>
-  <si>
-    <t>115 Teacher4 mabani_computer</t>
-  </si>
-  <si>
-    <t>115 Teacher7 Algorithm</t>
-  </si>
-  <si>
-    <t>120 Teacher5 Madar_Manteghi</t>
-  </si>
-  <si>
-    <t>120 Teacher3 Riyazi3</t>
-  </si>
-  <si>
-    <t>120 Teacher7 Algorithm</t>
-  </si>
-  <si>
-    <t>105 Teacher7 Riyazi2</t>
-  </si>
-  <si>
-    <t>105 Teacher8 Numerical Analyises</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>115 Teacher4 Mabani_Matrix</t>
-  </si>
-  <si>
-    <t>115 Teacher4 Mabani_Nazariye_Mohasebe</t>
-  </si>
-  <si>
-    <t>120 Teacher6 Compiler</t>
-  </si>
-  <si>
-    <t>120 Teacher8 Numerical Analyises</t>
-  </si>
-  <si>
-    <t>120 Teacher8 Azmayieshgah_riyazi</t>
-  </si>
-  <si>
-    <t>105 Teacher6 Compiler</t>
-  </si>
-  <si>
-    <t>Sunday</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>115 Teacher8 Azmayieshgah_riyazi</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" s="2" t="n"/>
       <c r="G2" s="2" t="n"/>
@@ -533,17 +533,15 @@
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
@@ -557,9 +555,7 @@
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="D4" s="2" t="n"/>
       <c r="E4" s="2" t="n"/>
       <c r="F4" s="2" t="n"/>
       <c r="G4" s="2" t="n"/>
@@ -569,14 +565,12 @@
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="D5" s="2" t="n"/>
       <c r="E5" s="2" t="n"/>
       <c r="F5" s="2" t="n"/>
       <c r="G5" s="2" t="n"/>
@@ -585,11 +579,9 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="n"/>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B6" s="2" t="n"/>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="n"/>
       <c r="E6" s="2" t="n"/>
@@ -599,34 +591,38 @@
       <c r="I6" s="2" t="n"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="2" t="n"/>
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F7" s="2" t="n"/>
       <c r="G7" s="2" t="n"/>
       <c r="H7" s="2" t="n"/>
       <c r="I7" s="2" t="n"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
       <c r="G8" s="2" t="n"/>
       <c r="H8" s="2" t="n"/>
@@ -634,15 +630,11 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="n"/>
-      <c r="B9" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="B9" s="2" t="n"/>
       <c r="C9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="n"/>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
       <c r="G9" s="2" t="n"/>
@@ -651,12 +643,8 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="n"/>
-      <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="B10" s="2" t="n"/>
+      <c r="C10" s="2" t="n"/>
       <c r="D10" s="2" t="n"/>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -676,11 +664,21 @@
       <c r="I11" s="2" t="n"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" s="2" t="n"/>
-      <c r="C12" s="2" t="n"/>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="F12" s="2" t="n"/>
       <c r="G12" s="2" t="n"/>
       <c r="H12" s="2" t="n"/>
@@ -688,9 +686,15 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="n"/>
-      <c r="B13" s="2" t="n"/>
-      <c r="C13" s="2" t="n"/>
-      <c r="D13" s="2" t="n"/>
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
       <c r="G13" s="2" t="n"/>
@@ -698,21 +702,13 @@
       <c r="I13" s="2" t="n"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="2" t="n"/>
       <c r="C14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="D14" s="2" t="n"/>
+      <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
       <c r="G14" s="2" t="n"/>
       <c r="H14" s="2" t="n"/>
@@ -720,15 +716,9 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="n"/>
-      <c r="B15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="B15" s="2" t="n"/>
+      <c r="C15" s="2" t="n"/>
+      <c r="D15" s="2" t="n"/>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
       <c r="G15" s="2" t="n"/>
@@ -738,9 +728,7 @@
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="2" t="n"/>
-      <c r="C16" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="C16" s="2" t="n"/>
       <c r="D16" s="2" t="n"/>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -749,11 +737,21 @@
       <c r="I16" s="2" t="n"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="2" t="n"/>
-      <c r="C17" s="2" t="n"/>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F17" s="2" t="n"/>
       <c r="G17" s="2" t="n"/>
       <c r="H17" s="2" t="n"/>
@@ -761,7 +759,9 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="n"/>
-      <c r="B18" s="2" t="n"/>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="C18" s="2" t="n"/>
       <c r="D18" s="2" t="n"/>
       <c r="E18" s="2" t="n"/>
@@ -782,14 +782,10 @@
       <c r="I19" s="2" t="n"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="2" t="n"/>
       <c r="C20" s="2" t="n"/>
-      <c r="D20" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="D20" s="2" t="n"/>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
       <c r="G20" s="2" t="n"/>
@@ -808,10 +804,18 @@
       <c r="I21" s="2" t="n"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="2" t="n"/>
-      <c r="C22" s="2" t="n"/>
-      <c r="D22" s="2" t="n"/>
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
       <c r="G22" s="2" t="n"/>
@@ -852,12 +856,8 @@
       <c r="I25" s="2" t="n"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="2" t="n"/>
       <c r="C26" s="2" t="n"/>
       <c r="D26" s="2" t="n"/>
       <c r="E26" s="2" t="n"/>
@@ -1011,11 +1011,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/resources/result.xlsx
+++ b/resources/result.xlsx
@@ -35,103 +35,103 @@
     <t>Wendsday</t>
   </si>
   <si>
-    <t>115 Teacher7 Algorithm</t>
-  </si>
-  <si>
-    <t>115 Teacher6 Compiler</t>
-  </si>
-  <si>
-    <t>115 Teacher8 mabani_computer</t>
-  </si>
-  <si>
-    <t>115 Teacher7 Mabani_Matrix</t>
-  </si>
-  <si>
-    <t>120 Teacher5 Madar_Manteghi</t>
-  </si>
-  <si>
-    <t>120 Teacher7 Algorithm</t>
+    <t>120 Teacher2 Phisics</t>
+  </si>
+  <si>
+    <t>120 Teacher8 Pishrafte</t>
+  </si>
+  <si>
+    <t>115 Teacher8 Pishrafte</t>
+  </si>
+  <si>
+    <t>115 Teacher4 Mabani_Nazariye_Mohasebe</t>
+  </si>
+  <si>
+    <t>105 Teacher7 Algorithm</t>
+  </si>
+  <si>
+    <t>105 Teacher2 Phisics</t>
+  </si>
+  <si>
+    <t>120 Teacher1 Riyazi2</t>
+  </si>
+  <si>
+    <t>100 Teacher1 Riyzi1</t>
+  </si>
+  <si>
+    <t>110 Teacher4 Mabani_Nazariye_Mohasebe</t>
+  </si>
+  <si>
+    <t>105 Teacher3 Numerical Analyises</t>
+  </si>
+  <si>
+    <t>115 Teacher5 Madar_Manteghi</t>
+  </si>
+  <si>
+    <t>Satureday</t>
+  </si>
+  <si>
+    <t>115 Teacher1 Riyazi2</t>
+  </si>
+  <si>
+    <t>115 Teacher8 Tarkibiyat</t>
+  </si>
+  <si>
+    <t>115 Teacher4 Kargahe_Computer</t>
   </si>
   <si>
     <t>120 Teacher3 Numerical Analyises</t>
   </si>
   <si>
-    <t>105 Teacher1 Riyzi1</t>
-  </si>
-  <si>
-    <t>105 Teacher8 mabani_computer</t>
-  </si>
-  <si>
-    <t>100 Teacher8 Tarkibiyat</t>
-  </si>
-  <si>
-    <t>100 Teacher1 Riyzi1</t>
-  </si>
-  <si>
-    <t>110 Teacher2 Phisics</t>
-  </si>
-  <si>
-    <t>Satureday</t>
-  </si>
-  <si>
-    <t>115 Teacher7 moadelat</t>
-  </si>
-  <si>
-    <t>120 Teacher8 Pishrafte</t>
-  </si>
-  <si>
-    <t>120 Teacher9 Riyazi3</t>
-  </si>
-  <si>
-    <t>105 Teacher3 Numerical Analyises</t>
+    <t>105 Teacher6 Data_Structure</t>
   </si>
   <si>
     <t>Tuesday</t>
   </si>
   <si>
-    <t>115 Teacher9 Riyazi3</t>
-  </si>
-  <si>
-    <t>115 Teacher8 Pishrafte</t>
-  </si>
-  <si>
-    <t>115 Teacher8 Mabani_Nazariye_Mohasebe</t>
-  </si>
-  <si>
-    <t>115 Teacher6 Data_Structure</t>
-  </si>
-  <si>
-    <t>120 Teacher6 Azmayieshgah_riyazi</t>
-  </si>
-  <si>
-    <t>120 Teacher7 Riyazi2</t>
-  </si>
-  <si>
-    <t>120 Teacher6 Data_Structure</t>
-  </si>
-  <si>
-    <t>105 Teacher6 Azmayieshgah_riyazi</t>
+    <t>115 Teacher8 Azmayieshgah_riyazi</t>
+  </si>
+  <si>
+    <t>115 Teacher4 mabani_computer</t>
+  </si>
+  <si>
+    <t>120 Teacher3 Riyazi3</t>
+  </si>
+  <si>
+    <t>120 Teacher1 Mabani_Riazi</t>
+  </si>
+  <si>
+    <t>120 Teacher4 Mabani_Matrix</t>
+  </si>
+  <si>
+    <t>105 Teacher3 Riyazi3</t>
+  </si>
+  <si>
+    <t>105 Teacher6 Compiler</t>
+  </si>
+  <si>
+    <t>100 Teacher4 Mabani_Matrix</t>
+  </si>
+  <si>
+    <t>110 Teacher6 Compiler</t>
   </si>
   <si>
     <t>Sunday</t>
   </si>
   <si>
-    <t>115 Teacher7 Riyazi2</t>
-  </si>
-  <si>
-    <t>115 Teacher7 Kargahe_Computer</t>
-  </si>
-  <si>
-    <t>115 Teacher9 Mabani_Riazi</t>
-  </si>
-  <si>
-    <t>120 Teacher9 Mabani_Riazi</t>
-  </si>
-  <si>
     <t>Monday</t>
   </si>
   <si>
-    <t>100 Teacher2 Phisics</t>
+    <t>115 Teacher1 Mabani_Riazi</t>
+  </si>
+  <si>
+    <t>115 Teacher1 moadelat</t>
+  </si>
+  <si>
+    <t>100 Teacher7 Algorithm</t>
+  </si>
+  <si>
+    <t>120 Teacher8 Azmayieshgah_riyazi</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,9 @@
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="n"/>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E4" s="2" t="n"/>
       <c r="F4" s="2" t="n"/>
       <c r="G4" s="2" t="n"/>
@@ -565,10 +567,10 @@
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="n"/>
       <c r="E5" s="2" t="n"/>
@@ -580,9 +582,7 @@
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="C6" s="2" t="n"/>
       <c r="D6" s="2" t="n"/>
       <c r="E6" s="2" t="n"/>
       <c r="F6" s="2" t="n"/>
@@ -592,19 +592,19 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F7" s="2" t="n"/>
       <c r="G7" s="2" t="n"/>
@@ -613,15 +613,11 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="n"/>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B8" s="2" t="n"/>
       <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D8" s="2" t="n"/>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
       <c r="G8" s="2" t="n"/>
@@ -668,16 +664,16 @@
         <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F12" s="2" t="n"/>
       <c r="G12" s="2" t="n"/>
@@ -687,13 +683,13 @@
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -703,11 +699,15 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="n"/>
-      <c r="B14" s="2" t="n"/>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="2" t="n"/>
+        <v>29</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
       <c r="G14" s="2" t="n"/>
@@ -717,7 +717,9 @@
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="2" t="n"/>
-      <c r="C15" s="2" t="n"/>
+      <c r="C15" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D15" s="2" t="n"/>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -728,7 +730,9 @@
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="2" t="n"/>
-      <c r="C16" s="2" t="n"/>
+      <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D16" s="2" t="n"/>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -738,20 +742,14 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="B17" s="2" t="n"/>
+      <c r="C17" s="2" t="n"/>
       <c r="D17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
       <c r="G17" s="2" t="n"/>
       <c r="H17" s="2" t="n"/>
@@ -759,9 +757,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="n"/>
-      <c r="B18" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B18" s="2" t="n"/>
       <c r="C18" s="2" t="n"/>
       <c r="D18" s="2" t="n"/>
       <c r="E18" s="2" t="n"/>
@@ -805,18 +801,20 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="2" t="n"/>
+      <c r="E22" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="F22" s="2" t="n"/>
       <c r="G22" s="2" t="n"/>
       <c r="H22" s="2" t="n"/>
@@ -824,7 +822,9 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="n"/>
-      <c r="B23" s="2" t="n"/>
+      <c r="B23" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="C23" s="2" t="n"/>
       <c r="D23" s="2" t="n"/>
       <c r="E23" s="2" t="n"/>

--- a/resources/result.xlsx
+++ b/resources/result.xlsx
@@ -35,103 +35,103 @@
     <t>Wendsday</t>
   </si>
   <si>
+    <t>115 Teacher7 Mabani_Matrix</t>
+  </si>
+  <si>
+    <t>115 Teacher8 Tarkibiyat</t>
+  </si>
+  <si>
+    <t>115 Teacher4 Mabani_Nazariye_Mohasebe</t>
+  </si>
+  <si>
+    <t>105 Teacher2 mabani_computer</t>
+  </si>
+  <si>
     <t>120 Teacher2 Phisics</t>
   </si>
   <si>
-    <t>120 Teacher8 Pishrafte</t>
-  </si>
-  <si>
-    <t>115 Teacher8 Pishrafte</t>
-  </si>
-  <si>
-    <t>115 Teacher4 Mabani_Nazariye_Mohasebe</t>
-  </si>
-  <si>
-    <t>105 Teacher7 Algorithm</t>
-  </si>
-  <si>
-    <t>105 Teacher2 Phisics</t>
+    <t>120 Teacher7 Kargahe_Computer</t>
+  </si>
+  <si>
+    <t>100 Teacher1 Riyzi1</t>
+  </si>
+  <si>
+    <t>110 Teacher8 Tarkibiyat</t>
+  </si>
+  <si>
+    <t>105 Teacher1 Mabani_Riazi</t>
+  </si>
+  <si>
+    <t>Satureday</t>
+  </si>
+  <si>
+    <t>115 Teacher2 Phisics</t>
+  </si>
+  <si>
+    <t>115 Teacher6 Data_Structure</t>
+  </si>
+  <si>
+    <t>115 Teacher9 Riyazi3</t>
+  </si>
+  <si>
+    <t>115 Teacher7 Algorithm</t>
+  </si>
+  <si>
+    <t>120 Teacher1 Mabani_Riazi</t>
+  </si>
+  <si>
+    <t>120 Teacher2 Azmayieshgah_riyazi</t>
+  </si>
+  <si>
+    <t>120 Teacher4 Mabani_Nazariye_Mohasebe</t>
+  </si>
+  <si>
+    <t>105 Teacher7 Kargahe_Computer</t>
+  </si>
+  <si>
+    <t>105 Teacher8 Numerical Analyises</t>
+  </si>
+  <si>
+    <t>105 Teacher2 Azmayieshgah_riyazi</t>
+  </si>
+  <si>
+    <t>100 Teacher7 Algorithm</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>115 Teacher6 Compiler</t>
+  </si>
+  <si>
+    <t>120 Teacher3 moadelat</t>
+  </si>
+  <si>
+    <t>100 Teacher6 Data_Structure</t>
+  </si>
+  <si>
+    <t>120 Teacher6 Compiler</t>
   </si>
   <si>
     <t>120 Teacher1 Riyazi2</t>
   </si>
   <si>
-    <t>100 Teacher1 Riyzi1</t>
-  </si>
-  <si>
-    <t>110 Teacher4 Mabani_Nazariye_Mohasebe</t>
-  </si>
-  <si>
-    <t>105 Teacher3 Numerical Analyises</t>
-  </si>
-  <si>
-    <t>115 Teacher5 Madar_Manteghi</t>
-  </si>
-  <si>
-    <t>Satureday</t>
+    <t>105 Teacher2 Pishrafte</t>
+  </si>
+  <si>
+    <t>100 Teacher2 Pishrafte</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Monday</t>
   </si>
   <si>
     <t>115 Teacher1 Riyazi2</t>
   </si>
   <si>
-    <t>115 Teacher8 Tarkibiyat</t>
-  </si>
-  <si>
-    <t>115 Teacher4 Kargahe_Computer</t>
-  </si>
-  <si>
-    <t>120 Teacher3 Numerical Analyises</t>
-  </si>
-  <si>
-    <t>105 Teacher6 Data_Structure</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>115 Teacher8 Azmayieshgah_riyazi</t>
-  </si>
-  <si>
-    <t>115 Teacher4 mabani_computer</t>
-  </si>
-  <si>
-    <t>120 Teacher3 Riyazi3</t>
-  </si>
-  <si>
-    <t>120 Teacher1 Mabani_Riazi</t>
-  </si>
-  <si>
-    <t>120 Teacher4 Mabani_Matrix</t>
-  </si>
-  <si>
-    <t>105 Teacher3 Riyazi3</t>
-  </si>
-  <si>
-    <t>105 Teacher6 Compiler</t>
-  </si>
-  <si>
-    <t>100 Teacher4 Mabani_Matrix</t>
-  </si>
-  <si>
-    <t>110 Teacher6 Compiler</t>
-  </si>
-  <si>
-    <t>Sunday</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>115 Teacher1 Mabani_Riazi</t>
-  </si>
-  <si>
-    <t>115 Teacher1 moadelat</t>
-  </si>
-  <si>
-    <t>100 Teacher7 Algorithm</t>
-  </si>
-  <si>
-    <t>120 Teacher8 Azmayieshgah_riyazi</t>
+    <t>115 Teacher1 Madar_Manteghi</t>
   </si>
 </sst>
 </file>
@@ -517,13 +517,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="F2" s="2" t="n"/>
       <c r="G2" s="2" t="n"/>
@@ -533,15 +533,17 @@
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
@@ -550,13 +552,13 @@
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="E4" s="2" t="n"/>
       <c r="F4" s="2" t="n"/>
@@ -566,11 +568,9 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="n"/>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="B5" s="2" t="n"/>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="n"/>
       <c r="E5" s="2" t="n"/>
@@ -580,32 +580,38 @@
       <c r="I5" s="2" t="n"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F6" s="2" t="n"/>
       <c r="G6" s="2" t="n"/>
       <c r="H6" s="2" t="n"/>
       <c r="I6" s="2" t="n"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A7" s="1" t="n"/>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="n"/>
       <c r="G7" s="2" t="n"/>
       <c r="H7" s="2" t="n"/>
@@ -613,11 +619,15 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="n"/>
-      <c r="B8" s="2" t="n"/>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2" t="n"/>
+        <v>24</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
       <c r="G8" s="2" t="n"/>
@@ -627,10 +637,10 @@
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="2" t="n"/>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="2" t="n"/>
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
       <c r="G9" s="2" t="n"/>
@@ -638,11 +648,21 @@
       <c r="I9" s="2" t="n"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="2" t="n"/>
-      <c r="C10" s="2" t="n"/>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F10" s="2" t="n"/>
       <c r="G10" s="2" t="n"/>
       <c r="H10" s="2" t="n"/>
@@ -650,8 +670,12 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="n"/>
-      <c r="B11" s="2" t="n"/>
-      <c r="C11" s="2" t="n"/>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D11" s="2" t="n"/>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
@@ -660,21 +684,15 @@
       <c r="I11" s="2" t="n"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
       <c r="G12" s="2" t="n"/>
       <c r="H12" s="2" t="n"/>
@@ -682,15 +700,11 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="n"/>
-      <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="B13" s="2" t="n"/>
       <c r="C13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D13" s="2" t="n"/>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
       <c r="G13" s="2" t="n"/>
@@ -698,15 +712,13 @@
       <c r="I13" s="2" t="n"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="n"/>
+      <c r="C14" s="2" t="n"/>
+      <c r="D14" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -717,9 +729,7 @@
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="2" t="n"/>
-      <c r="C15" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="C15" s="2" t="n"/>
       <c r="D15" s="2" t="n"/>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -730,9 +740,7 @@
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="2" t="n"/>
-      <c r="C16" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="C16" s="2" t="n"/>
       <c r="D16" s="2" t="n"/>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -741,14 +749,10 @@
       <c r="I16" s="2" t="n"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A17" s="1" t="n"/>
       <c r="B17" s="2" t="n"/>
       <c r="C17" s="2" t="n"/>
-      <c r="D17" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="D17" s="2" t="n"/>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
       <c r="G17" s="2" t="n"/>
@@ -756,11 +760,19 @@
       <c r="I17" s="2" t="n"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="n"/>
+      <c r="A18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
+      <c r="E18" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="F18" s="2" t="n"/>
       <c r="G18" s="2" t="n"/>
       <c r="H18" s="2" t="n"/>
@@ -800,21 +812,11 @@
       <c r="I21" s="2" t="n"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="2" t="n"/>
+      <c r="C22" s="2" t="n"/>
+      <c r="D22" s="2" t="n"/>
+      <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
       <c r="G22" s="2" t="n"/>
       <c r="H22" s="2" t="n"/>
@@ -822,9 +824,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="n"/>
-      <c r="B23" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="B23" s="2" t="n"/>
       <c r="C23" s="2" t="n"/>
       <c r="D23" s="2" t="n"/>
       <c r="E23" s="2" t="n"/>
@@ -1011,11 +1011,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
